--- a/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t xml:space="preserve">Tidsregistrering af (Navn)</t>
   </si>
@@ -53,21 +53,42 @@
     <t xml:space="preserve">Timer i alt</t>
   </si>
   <si>
-    <t xml:space="preserve">Coauthors DD01</t>
+    <t xml:space="preserve">Rwnakrivning DD01</t>
   </si>
   <si>
     <t xml:space="preserve">business-Process Analyst</t>
   </si>
   <si>
-    <t xml:space="preserve">Coauthors DOM01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coauthors Cross DOM1, UC01 and AD01</t>
+    <t xml:space="preserve">Retskrivning DOM01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross DOM1, UC01 and AD01</t>
   </si>
   <si>
     <t xml:space="preserve">Reviewer</t>
   </si>
   <si>
+    <t xml:space="preserve">ret DOM01 i forhold til UC01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review UT01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundet guide til auto deploy fra GitHub til Play Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review OC0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review OC0102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review Tidregistringsguide</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roller!</t>
   </si>
   <si>
@@ -114,9 +135,6 @@
   </si>
   <si>
     <t xml:space="preserve">Test Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployment Manager</t>
   </si>
   <si>
     <t xml:space="preserve">Process Engineer</t>
@@ -168,7 +186,7 @@
     <numFmt numFmtId="166" formatCode="hh:mm;@"/>
     <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -232,6 +250,12 @@
       <sz val="15"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val=""/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -352,7 +376,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -447,6 +471,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -533,7 +561,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>60840</xdr:colOff>
+      <xdr:colOff>61200</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>68760</xdr:rowOff>
     </xdr:from>
@@ -550,8 +578,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9884160" y="2628360"/>
-          <a:ext cx="184320" cy="264600"/>
+          <a:off x="10015200" y="2596680"/>
+          <a:ext cx="183960" cy="264600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -581,13 +609,14 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="53.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="31.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="26.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="31.01"/>
@@ -719,7 +748,7 @@
     </row>
     <row r="6" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -743,76 +772,170 @@
         <v>0.177083333333333</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="22"/>
+    <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="22" t="n">
+        <v>43886</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
       <c r="F7" s="23"/>
       <c r="G7" s="19" t="n">
         <f aca="false">E7-D7</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="H7" s="20" t="n">
         <f aca="false">SUM(G$3:G7)</f>
-        <v>0.177083333333333</v>
+        <v>0.364583333333333</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="22"/>
-      <c r="F8" s="23"/>
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="22" t="n">
+        <v>43886</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="F8" s="21" t="n">
+        <v>0.0104166666666667</v>
+      </c>
       <c r="G8" s="19" t="n">
         <f aca="false">E8-D8</f>
-        <v>0</v>
+        <v>0.0104166666666667</v>
       </c>
       <c r="H8" s="20" t="n">
         <f aca="false">SUM(G$3:G8)</f>
-        <v>0.177083333333333</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="22"/>
-      <c r="F9" s="23"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>43886</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.572916666666667</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="F9" s="21" t="n">
+        <v>0.0416666666666667</v>
+      </c>
       <c r="G9" s="19" t="n">
         <f aca="false">E9-D9</f>
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="H9" s="20" t="n">
         <f aca="false">SUM(G$3:G9)</f>
-        <v>0.177083333333333</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="22"/>
-      <c r="F10" s="23"/>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="22" t="n">
+        <v>43886</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.635416666666667</v>
+      </c>
+      <c r="F10" s="21" t="n">
+        <v>0.0104166666666667</v>
+      </c>
       <c r="G10" s="19" t="n">
         <f aca="false">E10-D10</f>
-        <v>0</v>
+        <v>0.0104166666666667</v>
       </c>
       <c r="H10" s="20" t="n">
         <f aca="false">SUM(G$3:G10)</f>
-        <v>0.177083333333333</v>
+        <v>0.416666666666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="22"/>
-      <c r="F11" s="23"/>
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="22" t="n">
+        <v>43886</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.635416666666667</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="F11" s="21" t="n">
+        <v>0.0104166666666667</v>
+      </c>
       <c r="G11" s="19" t="n">
         <f aca="false">E11-D11</f>
-        <v>0</v>
+        <v>0.0104166666666667</v>
       </c>
       <c r="H11" s="20" t="n">
         <f aca="false">SUM(G$3:G11)</f>
-        <v>0.177083333333333</v>
+        <v>0.427083333333333</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="22" t="n">
+        <v>43886</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="F12" s="21" t="n">
+        <v>0.0104166666666667</v>
+      </c>
       <c r="G12" s="19" t="n">
         <f aca="false">E12-D12</f>
-        <v>0</v>
+        <v>0.0104166666666667</v>
       </c>
       <c r="H12" s="20" t="n">
         <f aca="false">SUM(G$3:G12)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,7 +947,7 @@
       </c>
       <c r="H13" s="20" t="n">
         <f aca="false">SUM(G$3:G13)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,7 +959,7 @@
       </c>
       <c r="H14" s="20" t="n">
         <f aca="false">SUM(G$3:G14)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -848,7 +971,7 @@
       </c>
       <c r="H15" s="20" t="n">
         <f aca="false">SUM(G$3:G15)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,7 +983,7 @@
       </c>
       <c r="H16" s="20" t="n">
         <f aca="false">SUM(G$3:G16)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,7 +995,7 @@
       </c>
       <c r="H17" s="20" t="n">
         <f aca="false">SUM(G$3:G17)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,7 +1007,7 @@
       </c>
       <c r="H18" s="20" t="n">
         <f aca="false">SUM(G$3:G18)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -896,7 +1019,7 @@
       </c>
       <c r="H19" s="20" t="n">
         <f aca="false">SUM(G$3:G19)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,7 +1031,7 @@
       </c>
       <c r="H20" s="20" t="n">
         <f aca="false">SUM(G$3:G20)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,7 +1043,7 @@
       </c>
       <c r="H21" s="20" t="n">
         <f aca="false">SUM(G$3:G21)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,7 +1055,7 @@
       </c>
       <c r="H22" s="20" t="n">
         <f aca="false">SUM(G$3:G22)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,7 +1067,7 @@
       </c>
       <c r="H23" s="20" t="n">
         <f aca="false">SUM(G$3:G23)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,7 +1079,7 @@
       </c>
       <c r="H24" s="20" t="n">
         <f aca="false">SUM(G$3:G24)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,7 +1090,7 @@
       </c>
       <c r="H25" s="20" t="n">
         <f aca="false">SUM(G$3:G25)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,7 +1101,7 @@
       </c>
       <c r="H26" s="20" t="n">
         <f aca="false">SUM(G$3:G26)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,7 +1112,7 @@
       </c>
       <c r="H27" s="20" t="n">
         <f aca="false">SUM(G$3:G27)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,7 +1123,7 @@
       </c>
       <c r="H28" s="20" t="n">
         <f aca="false">SUM(G$3:G28)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,7 +1134,7 @@
       </c>
       <c r="H29" s="20" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,7 +1145,7 @@
       </c>
       <c r="H30" s="20" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,7 +1156,7 @@
       </c>
       <c r="H31" s="20" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,7 +1167,7 @@
       </c>
       <c r="H32" s="20" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>0.177083333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,26 +1255,26 @@
       <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1207,7 +1330,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1223,7 +1346,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,7 +1354,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1239,7 +1362,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,7 +1370,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,7 +1378,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,7 +1386,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,7 +1394,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,7 +1402,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,7 +1410,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,7 +1418,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,7 +1434,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1319,7 +1442,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,7 +1450,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,7 +1458,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,7 +1466,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,7 +1474,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,7 +1490,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,7 +1498,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,7 +1506,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t xml:space="preserve">Tidsregistrering af (Navn)</t>
   </si>
@@ -89,6 +89,27 @@
     <t xml:space="preserve">review Tidregistringsguide</t>
   </si>
   <si>
+    <t xml:space="preserve">Skrivning af procedure og vejledning af move/remane på GIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool Specialist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lav UC03 og ATD03a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Analyst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lav DD04 og ATD04b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lav DOM03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review UC05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roller!</t>
   </si>
   <si>
@@ -101,9 +122,6 @@
     <t xml:space="preserve">business designer</t>
   </si>
   <si>
-    <t xml:space="preserve">System Analyst </t>
-  </si>
-  <si>
     <t xml:space="preserve">Requirement Specifier</t>
   </si>
   <si>
@@ -159,9 +177,6 @@
   </si>
   <si>
     <t xml:space="preserve">Graphic Artist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool Specialist</t>
   </si>
   <si>
     <t xml:space="preserve">Course Developer</t>
@@ -186,7 +201,7 @@
     <numFmt numFmtId="166" formatCode="hh:mm;@"/>
     <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -250,12 +265,6 @@
       <sz val="15"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val=""/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -376,7 +385,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -471,10 +480,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -567,9 +572,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>245160</xdr:colOff>
+      <xdr:colOff>244800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -578,8 +583,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10015200" y="2596680"/>
-          <a:ext cx="183960" cy="264600"/>
+          <a:off x="10014480" y="2596680"/>
+          <a:ext cx="183600" cy="264240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -609,10 +614,10 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.89"/>
@@ -827,7 +832,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -939,63 +944,133 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="22"/>
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="22" t="n">
+        <v>43887</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0.4375</v>
+      </c>
       <c r="F13" s="23"/>
       <c r="G13" s="19" t="n">
         <f aca="false">E13-D13</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H13" s="20" t="n">
         <f aca="false">SUM(G$3:G13)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <v>43887</v>
+      </c>
+      <c r="D14" s="3" t="n">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="22"/>
+      <c r="E14" s="3" t="n">
+        <v>0.5</v>
+      </c>
       <c r="F14" s="23"/>
       <c r="G14" s="19" t="n">
         <f aca="false">E14-D14</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H14" s="20" t="n">
         <f aca="false">SUM(G$3:G14)</f>
-        <v>0.4375</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="22"/>
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="22" t="n">
+        <v>43887</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.5625</v>
+      </c>
       <c r="F15" s="23"/>
       <c r="G15" s="19" t="n">
         <f aca="false">E15-D15</f>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H15" s="20" t="n">
         <f aca="false">SUM(G$3:G15)</f>
-        <v>0.4375</v>
+        <v>0.604166666666667</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="22"/>
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="22" t="n">
+        <v>43887</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.604166666666667</v>
+      </c>
       <c r="F16" s="23"/>
       <c r="G16" s="19" t="n">
         <f aca="false">E16-D16</f>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H16" s="20" t="n">
         <f aca="false">SUM(G$3:G16)</f>
-        <v>0.4375</v>
+        <v>0.645833333333334</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="22"/>
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="22" t="n">
+        <v>43887</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0.614583333333333</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0.635416666666667</v>
+      </c>
       <c r="F17" s="23"/>
       <c r="G17" s="19" t="n">
         <f aca="false">E17-D17</f>
-        <v>0</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="H17" s="20" t="n">
         <f aca="false">SUM(G$3:G17)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,7 +1082,7 @@
       </c>
       <c r="H18" s="20" t="n">
         <f aca="false">SUM(G$3:G18)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,7 +1094,7 @@
       </c>
       <c r="H19" s="20" t="n">
         <f aca="false">SUM(G$3:G19)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,7 +1106,7 @@
       </c>
       <c r="H20" s="20" t="n">
         <f aca="false">SUM(G$3:G20)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,7 +1118,7 @@
       </c>
       <c r="H21" s="20" t="n">
         <f aca="false">SUM(G$3:G21)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,7 +1130,7 @@
       </c>
       <c r="H22" s="20" t="n">
         <f aca="false">SUM(G$3:G22)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,7 +1142,7 @@
       </c>
       <c r="H23" s="20" t="n">
         <f aca="false">SUM(G$3:G23)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,7 +1154,7 @@
       </c>
       <c r="H24" s="20" t="n">
         <f aca="false">SUM(G$3:G24)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,7 +1165,7 @@
       </c>
       <c r="H25" s="20" t="n">
         <f aca="false">SUM(G$3:G25)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,7 +1176,7 @@
       </c>
       <c r="H26" s="20" t="n">
         <f aca="false">SUM(G$3:G26)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1112,7 +1187,7 @@
       </c>
       <c r="H27" s="20" t="n">
         <f aca="false">SUM(G$3:G27)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,7 +1198,7 @@
       </c>
       <c r="H28" s="20" t="n">
         <f aca="false">SUM(G$3:G28)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1134,7 +1209,7 @@
       </c>
       <c r="H29" s="20" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,7 +1220,7 @@
       </c>
       <c r="H30" s="20" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,7 +1231,7 @@
       </c>
       <c r="H31" s="20" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,7 +1242,7 @@
       </c>
       <c r="H32" s="20" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>0.4375</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,26 +1330,26 @@
       <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,7 +1373,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,7 +1389,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,7 +1397,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,7 +1437,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,7 +1445,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,7 +1453,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,7 +1461,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,7 +1477,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,7 +1485,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,7 +1493,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,7 +1501,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,7 +1509,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,7 +1517,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,7 +1525,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,7 +1533,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,7 +1541,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,7 +1549,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1490,7 +1565,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,7 +1573,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,7 +1581,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t xml:space="preserve">Tidsregistrering af (Navn)</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Estimeret tidsforbrug</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktuelt tidforbrug (i timer)</t>
+    <t xml:space="preserve">Aktuelt tidsforbrug (i timer)</t>
   </si>
   <si>
     <t xml:space="preserve">Timer i alt</t>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t xml:space="preserve">Review UC05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ret DOM03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ret DD04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lav OC0804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lav OC0803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review DD05</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -195,13 +210,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-406]dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="hh:mm;@"/>
     <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="[hh]:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -266,6 +282,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -385,7 +406,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -479,6 +500,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -566,7 +595,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>61200</xdr:colOff>
+      <xdr:colOff>61560</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>68760</xdr:rowOff>
     </xdr:from>
@@ -583,8 +612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10014480" y="2596680"/>
-          <a:ext cx="183600" cy="264240"/>
+          <a:off x="10014840" y="2596680"/>
+          <a:ext cx="183240" cy="264240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -614,10 +643,10 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.89"/>
@@ -1074,63 +1103,137 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="22"/>
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="22" t="n">
+        <v>43888</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.395833333333333</v>
+      </c>
       <c r="F18" s="23"/>
       <c r="G18" s="19" t="n">
         <f aca="false">E18-D18</f>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H18" s="20" t="n">
         <f aca="false">SUM(G$3:G18)</f>
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="22"/>
+        <v>0.708333333333334</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="24" t="n">
+        <v>43888</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
       <c r="F19" s="23"/>
       <c r="G19" s="19" t="n">
         <f aca="false">E19-D19</f>
-        <v>0</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="H19" s="20" t="n">
         <f aca="false">SUM(G$3:G19)</f>
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="22"/>
-      <c r="F20" s="23"/>
+        <v>0.729166666666667</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="24" t="n">
+        <v>43888</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="F20" s="25" t="n">
+        <v>0.0208333333333333</v>
+      </c>
       <c r="G20" s="19" t="n">
         <f aca="false">E20-D20</f>
-        <v>0</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="H20" s="20" t="n">
         <f aca="false">SUM(G$3:G20)</f>
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="22"/>
-      <c r="F21" s="23"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="24" t="n">
+        <v>43888</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0.447916666666667</v>
+      </c>
+      <c r="F21" s="21" t="n">
+        <v>0.0104166666666667</v>
+      </c>
       <c r="G21" s="19" t="n">
         <f aca="false">E21-D21</f>
-        <v>0</v>
+        <v>0.0104166666666667</v>
       </c>
       <c r="H21" s="20" t="n">
         <f aca="false">SUM(G$3:G21)</f>
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="22"/>
+        <v>0.760416666666667</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="24" t="n">
+        <v>43888</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.447916666666667</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0.458333333333333</v>
+      </c>
       <c r="F22" s="23"/>
       <c r="G22" s="19" t="n">
         <f aca="false">E22-D22</f>
-        <v>0</v>
+        <v>0.0104166666666667</v>
       </c>
       <c r="H22" s="20" t="n">
         <f aca="false">SUM(G$3:G22)</f>
-        <v>0.666666666666667</v>
+        <v>0.770833333333334</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,7 +1245,7 @@
       </c>
       <c r="H23" s="20" t="n">
         <f aca="false">SUM(G$3:G23)</f>
-        <v>0.666666666666667</v>
+        <v>0.770833333333334</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1154,7 +1257,7 @@
       </c>
       <c r="H24" s="20" t="n">
         <f aca="false">SUM(G$3:G24)</f>
-        <v>0.666666666666667</v>
+        <v>0.770833333333334</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1165,7 +1268,7 @@
       </c>
       <c r="H25" s="20" t="n">
         <f aca="false">SUM(G$3:G25)</f>
-        <v>0.666666666666667</v>
+        <v>0.770833333333334</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,7 +1279,7 @@
       </c>
       <c r="H26" s="20" t="n">
         <f aca="false">SUM(G$3:G26)</f>
-        <v>0.666666666666667</v>
+        <v>0.770833333333334</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,7 +1290,7 @@
       </c>
       <c r="H27" s="20" t="n">
         <f aca="false">SUM(G$3:G27)</f>
-        <v>0.666666666666667</v>
+        <v>0.770833333333334</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,7 +1301,7 @@
       </c>
       <c r="H28" s="20" t="n">
         <f aca="false">SUM(G$3:G28)</f>
-        <v>0.666666666666667</v>
+        <v>0.770833333333334</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,7 +1312,7 @@
       </c>
       <c r="H29" s="20" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>0.666666666666667</v>
+        <v>0.770833333333334</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,7 +1323,7 @@
       </c>
       <c r="H30" s="20" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>0.666666666666667</v>
+        <v>0.770833333333334</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,7 +1334,7 @@
       </c>
       <c r="H31" s="20" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>0.666666666666667</v>
+        <v>0.770833333333334</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,7 +1345,7 @@
       </c>
       <c r="H32" s="20" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>0.666666666666667</v>
+        <v>0.770833333333334</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,26 +1433,26 @@
       <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="A1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,7 +1500,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,7 +1508,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,7 +1532,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1437,7 +1540,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,7 +1548,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,7 +1556,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1477,7 +1580,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,7 +1588,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,7 +1596,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,7 +1604,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,7 +1612,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,7 +1620,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,7 +1628,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,7 +1636,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,7 +1652,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,7 +1668,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1573,7 +1676,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,7 +1684,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t xml:space="preserve">Tidsregistrering af (Navn)</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Retskrivning DOM01</t>
   </si>
   <si>
-    <t xml:space="preserve">Cross DOM1, UC01 and AD01</t>
+    <t xml:space="preserve">Cross DOM01, UC01 and AD01</t>
   </si>
   <si>
     <t xml:space="preserve">Reviewer</t>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">review DD05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross DD04, DOM04, UC04 and AD04</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -217,7 +220,7 @@
     <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="168" formatCode="[hh]:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,11 +285,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -406,7 +404,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -500,10 +498,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,9 +595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>244800</xdr:colOff>
+      <xdr:colOff>244440</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -613,7 +607,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10014840" y="2596680"/>
-          <a:ext cx="183240" cy="264240"/>
+          <a:ext cx="182880" cy="263880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -643,10 +637,10 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.89"/>
@@ -1135,7 +1129,7 @@
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="24" t="n">
+      <c r="C19" s="22" t="n">
         <v>43888</v>
       </c>
       <c r="D19" s="3" t="n">
@@ -1161,7 +1155,7 @@
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="24" t="n">
+      <c r="C20" s="22" t="n">
         <v>43888</v>
       </c>
       <c r="D20" s="3" t="n">
@@ -1170,7 +1164,7 @@
       <c r="E20" s="3" t="n">
         <v>0.4375</v>
       </c>
-      <c r="F20" s="25" t="n">
+      <c r="F20" s="24" t="n">
         <v>0.0208333333333333</v>
       </c>
       <c r="G20" s="19" t="n">
@@ -1189,7 +1183,7 @@
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="24" t="n">
+      <c r="C21" s="22" t="n">
         <v>43888</v>
       </c>
       <c r="D21" s="3" t="n">
@@ -1217,7 +1211,7 @@
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="24" t="n">
+      <c r="C22" s="22" t="n">
         <v>43888</v>
       </c>
       <c r="D22" s="3" t="n">
@@ -1237,15 +1231,29 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="22"/>
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="22" t="n">
+        <v>43889</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0.520833333333333</v>
+      </c>
       <c r="F23" s="23"/>
       <c r="G23" s="19" t="n">
         <f aca="false">E23-D23</f>
-        <v>0</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="H23" s="20" t="n">
         <f aca="false">SUM(G$3:G23)</f>
-        <v>0.770833333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1257,7 +1265,7 @@
       </c>
       <c r="H24" s="20" t="n">
         <f aca="false">SUM(G$3:G24)</f>
-        <v>0.770833333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,7 +1276,7 @@
       </c>
       <c r="H25" s="20" t="n">
         <f aca="false">SUM(G$3:G25)</f>
-        <v>0.770833333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,7 +1287,7 @@
       </c>
       <c r="H26" s="20" t="n">
         <f aca="false">SUM(G$3:G26)</f>
-        <v>0.770833333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,7 +1298,7 @@
       </c>
       <c r="H27" s="20" t="n">
         <f aca="false">SUM(G$3:G27)</f>
-        <v>0.770833333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,7 +1309,7 @@
       </c>
       <c r="H28" s="20" t="n">
         <f aca="false">SUM(G$3:G28)</f>
-        <v>0.770833333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,7 +1320,7 @@
       </c>
       <c r="H29" s="20" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>0.770833333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,7 +1331,7 @@
       </c>
       <c r="H30" s="20" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>0.770833333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1334,7 +1342,7 @@
       </c>
       <c r="H31" s="20" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>0.770833333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,7 +1353,7 @@
       </c>
       <c r="H32" s="20" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>0.770833333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,30 +1437,30 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,7 +1500,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,7 +1508,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,7 +1516,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,7 +1524,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,7 +1532,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,7 +1556,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,7 +1564,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,7 +1572,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,7 +1588,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,7 +1596,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,7 +1604,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,7 +1612,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,7 +1620,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,7 +1628,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1628,7 +1636,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1644,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,7 +1660,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,7 +1676,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,7 +1684,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,7 +1692,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t xml:space="preserve">Tidsregistrering af (Navn)</t>
   </si>
@@ -128,6 +128,24 @@
     <t xml:space="preserve">Cross DD04, DOM04, UC04 and AD04</t>
   </si>
   <si>
+    <t xml:space="preserve">Rettet DD04 til at passe med krydstjek med UC04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lav SD0804 and DCD0804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rettet OC0804 til at passe med SSD08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI til UC08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User-Interface Designer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roller!</t>
   </si>
   <si>
@@ -144,12 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">Software Architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User-Interface Designer</t>
   </si>
   <si>
     <t xml:space="preserve">Capsule Designer</t>
@@ -595,9 +607,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>244440</xdr:colOff>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -607,7 +619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10014840" y="2596680"/>
-          <a:ext cx="182880" cy="263880"/>
+          <a:ext cx="182520" cy="263520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -637,10 +649,10 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.89"/>
@@ -1257,59 +1269,129 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="22"/>
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="22" t="n">
+        <v>43892</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0.395833333333333</v>
+      </c>
       <c r="F24" s="23"/>
       <c r="G24" s="19" t="n">
         <f aca="false">E24-D24</f>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H24" s="20" t="n">
         <f aca="false">SUM(G$3:G24)</f>
-        <v>0.875</v>
+        <v>0.916666666666667</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="22"/>
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="22" t="n">
+        <v>43892</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0.458333333333333</v>
+      </c>
       <c r="G25" s="19" t="n">
         <f aca="false">E25-D25</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H25" s="20" t="n">
         <f aca="false">SUM(G$3:G25)</f>
-        <v>0.875</v>
+        <v>0.979166666666667</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="22"/>
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="22" t="n">
+        <v>43892</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>0.489583333333333</v>
+      </c>
       <c r="G26" s="19" t="n">
         <f aca="false">E26-D26</f>
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="H26" s="20" t="n">
         <f aca="false">SUM(G$3:G26)</f>
-        <v>0.875</v>
+        <v>1.01041666666667</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="22"/>
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="22" t="n">
+        <v>43892</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0.583333333333333</v>
+      </c>
       <c r="G27" s="19" t="n">
         <f aca="false">E27-D27</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H27" s="20" t="n">
         <f aca="false">SUM(G$3:G27)</f>
-        <v>0.875</v>
+        <v>1.07291666666667</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="22"/>
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="22" t="n">
+        <v>43892</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0.625</v>
+      </c>
       <c r="G28" s="19" t="n">
         <f aca="false">E28-D28</f>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H28" s="20" t="n">
         <f aca="false">SUM(G$3:G28)</f>
-        <v>0.875</v>
+        <v>1.11458333333333</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,7 +1402,7 @@
       </c>
       <c r="H29" s="20" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>0.875</v>
+        <v>1.11458333333333</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,7 +1413,7 @@
       </c>
       <c r="H30" s="20" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>0.875</v>
+        <v>1.11458333333333</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,7 +1424,7 @@
       </c>
       <c r="H31" s="20" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>0.875</v>
+        <v>1.11458333333333</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,7 +1435,7 @@
       </c>
       <c r="H32" s="20" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>0.875</v>
+        <v>1.11458333333333</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,14 +1523,14 @@
       <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1457,10 +1539,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1476,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,7 +1574,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,7 +1598,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,7 +1606,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,7 +1614,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,7 +1622,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,7 +1630,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,7 +1638,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,7 +1646,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,7 +1654,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,7 +1670,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,7 +1678,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,7 +1686,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,7 +1694,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,7 +1702,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1628,7 +1710,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1718,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,7 +1726,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,7 +1742,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,7 +1758,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,7 +1766,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,7 +1774,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
@@ -24,9 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
-  <si>
-    <t xml:space="preserve">Tidsregistrering af (Navn)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+  <si>
+    <t xml:space="preserve">Tidsregistrering af Toke</t>
   </si>
   <si>
     <t xml:space="preserve">Opgavebeskrivelse</t>
@@ -607,9 +607,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>244080</xdr:colOff>
+      <xdr:colOff>243720</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -619,7 +619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10014840" y="2596680"/>
-          <a:ext cx="182520" cy="263520"/>
+          <a:ext cx="182160" cy="263160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,10 +649,10 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.89"/>
@@ -1395,14 +1395,28 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="22"/>
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="22" t="n">
+        <v>43893</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G29" s="19" t="n">
         <f aca="false">E29-D29</f>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="H29" s="20" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>1.11458333333333</v>
+        <v>1.42708333333333</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,7 +1427,7 @@
       </c>
       <c r="H30" s="20" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>1.11458333333333</v>
+        <v>1.42708333333333</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,7 +1438,7 @@
       </c>
       <c r="H31" s="20" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>1.11458333333333</v>
+        <v>1.42708333333333</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,7 +1449,7 @@
       </c>
       <c r="H32" s="20" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>1.11458333333333</v>
+        <v>1.42708333333333</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,7 +1537,7 @@
       <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.89"/>
   </cols>

--- a/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t xml:space="preserve">Tidsregistrering af Toke</t>
   </si>
@@ -146,6 +146,15 @@
     <t xml:space="preserve">User-Interface Designer</t>
   </si>
   <si>
+    <t xml:space="preserve">UI til UC08 samt samlet UI til at holde alle Ui elementer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lav UC12, DOM12 og ATD12a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirement Specifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roller!</t>
   </si>
   <si>
@@ -156,9 +165,6 @@
   </si>
   <si>
     <t xml:space="preserve">business designer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirement Specifier</t>
   </si>
   <si>
     <t xml:space="preserve">Software Architect</t>
@@ -607,9 +613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>243720</xdr:colOff>
+      <xdr:colOff>243360</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -619,7 +625,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10014840" y="2596680"/>
-          <a:ext cx="182160" cy="263160"/>
+          <a:ext cx="181800" cy="262800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,10 +655,10 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.89"/>
@@ -1420,25 +1426,53 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="22"/>
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="22" t="n">
+        <v>43894</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0.59375</v>
+      </c>
       <c r="G30" s="19" t="n">
         <f aca="false">E30-D30</f>
-        <v>0</v>
+        <v>0.239583333333333</v>
       </c>
       <c r="H30" s="20" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>1.42708333333333</v>
+        <v>1.66666666666667</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="22"/>
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="22" t="n">
+        <v>43894</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G31" s="19" t="n">
         <f aca="false">E31-D31</f>
-        <v>0</v>
+        <v>0.0729166666666667</v>
       </c>
       <c r="H31" s="20" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>1.42708333333333</v>
+        <v>1.73958333333333</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,7 +1483,7 @@
       </c>
       <c r="H32" s="20" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>1.42708333333333</v>
+        <v>1.73958333333333</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,14 +1571,14 @@
       <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1553,10 +1587,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,7 +1630,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1628,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1670,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,7 +1686,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,7 +1694,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,7 +1702,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,7 +1718,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,7 +1726,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,7 +1734,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,7 +1742,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,7 +1750,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,7 +1758,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,7 +1766,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,7 +1774,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1756,7 +1790,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,7 +1806,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,7 +1814,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,7 +1822,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t xml:space="preserve">Tidsregistrering af Toke</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t xml:space="preserve">Requirement Specifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementering af grund UI og UI08</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -613,9 +616,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>243360</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -625,7 +628,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10014840" y="2596680"/>
-          <a:ext cx="181800" cy="262800"/>
+          <a:ext cx="181440" cy="262440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -658,7 +661,7 @@
       <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.89"/>
@@ -1476,14 +1479,28 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="22"/>
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="22" t="n">
+        <v>43895</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G32" s="19" t="n">
         <f aca="false">E32-D32</f>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="H32" s="20" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>1.73958333333333</v>
+        <v>2.05208333333333</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,14 +1588,14 @@
       <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1587,10 +1604,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,7 +1647,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,7 +1671,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,7 +1679,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,7 +1695,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,7 +1711,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,7 +1719,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,7 +1735,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,7 +1743,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,7 +1751,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,7 +1759,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,7 +1767,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,7 +1775,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,7 +1783,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,7 +1791,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,7 +1807,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,7 +1823,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,7 +1831,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,7 +1839,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM14_Tidsregistrering_toke.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t xml:space="preserve">Tidsregistrering af Toke</t>
   </si>
@@ -610,9 +610,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>61560</xdr:colOff>
+      <xdr:colOff>61920</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -627,8 +627,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10014840" y="2596680"/>
-          <a:ext cx="181440" cy="262440"/>
+          <a:off x="10015200" y="2517480"/>
+          <a:ext cx="181080" cy="246240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -658,10 +658,10 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.89"/>
@@ -711,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -767,7 +767,7 @@
         <v>0.0520833333333333</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -795,7 +795,7 @@
         <v>0.114583333333333</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -847,7 +847,7 @@
         <v>0.364583333333333</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -903,7 +903,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -931,7 +931,7 @@
         <v>0.416666666666667</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -959,7 +959,7 @@
         <v>0.427083333333333</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -987,7 +987,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>0.604166666666667</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>0.645833333333334</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>0.666666666666667</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>0.770833333333334</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>0.916666666666667</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>0.979166666666667</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>1.01041666666667</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>1.07291666666667</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>1.11458333333333</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>1.42708333333333</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>1.66666666666667</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>1.73958333333333</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -1503,44 +1503,162 @@
         <v>2.05208333333333</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="22"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="22" t="n">
+        <v>43896</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G33" s="19" t="n">
+        <f aca="false">E33-D33</f>
+        <v>0.229166666666667</v>
+      </c>
+      <c r="H33" s="20" t="n">
+        <f aca="false">SUM(G$3:G33)</f>
+        <v>2.28125</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="22"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="19" t="n">
+        <f aca="false">E34-D34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="20" t="n">
+        <f aca="false">SUM(G$3:G34)</f>
+        <v>2.28125</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="22"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="19" t="n">
+        <f aca="false">E35-D35</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="20" t="n">
+        <f aca="false">SUM(G$3:G35)</f>
+        <v>2.28125</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="22"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="19" t="n">
+        <f aca="false">E36-D36</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="20" t="n">
+        <f aca="false">SUM(G$3:G36)</f>
+        <v>2.28125</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="22"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="19" t="n">
+        <f aca="false">E37-D37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="20" t="n">
+        <f aca="false">SUM(G$3:G37)</f>
+        <v>2.28125</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="22"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="19" t="n">
+        <f aca="false">E38-D38</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="20" t="n">
+        <f aca="false">SUM(G$3:G38)</f>
+        <v>2.28125</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="22"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="19" t="n">
+        <f aca="false">E39-D39</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="20" t="n">
+        <f aca="false">SUM(G$3:G39)</f>
+        <v>2.28125</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="22"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="19" t="n">
+        <f aca="false">E40-D40</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="20" t="n">
+        <f aca="false">SUM(G$3:G40)</f>
+        <v>2.28125</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="22"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="19" t="n">
+        <f aca="false">E41-D41</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="20" t="n">
+        <f aca="false">SUM(G$3:G41)</f>
+        <v>2.28125</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="22"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="19" t="n">
+        <f aca="false">E42-D42</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="20" t="n">
+        <f aca="false">SUM(G$3:G42)</f>
+        <v>2.28125</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="22"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="19" t="n">
+        <f aca="false">E43-D43</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="20" t="n">
+        <f aca="false">SUM(G$3:G43)</f>
+        <v>2.28125</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="22"/>
-    </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="19" t="n">
+        <f aca="false">E44-D44</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="20" t="n">
+        <f aca="false">SUM(G$3:G44)</f>
+        <v>2.28125</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="22"/>
+      <c r="G45" s="19" t="n">
+        <f aca="false">E45-D45</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="20" t="n">
+        <f aca="false">SUM(G$3:G45)</f>
+        <v>2.28125</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="22"/>
@@ -1588,7 +1706,7 @@
       <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.89"/>
   </cols>
